--- a/2019/Kaysville/Kaysville Report.xlsx
+++ b/2019/Kaysville/Kaysville Report.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Yearly Reports\2018\Kaysville\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Kaysville\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D22C935-4B16-454F-98B5-06DD6E57F8CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDC3D41-A4F8-4E91-B7DF-BA8CA6537A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -186,6 +187,18 @@
   </si>
   <si>
     <t>Fair</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 Kaysville</t>
+  </si>
+  <si>
+    <t>19 Rainbow</t>
   </si>
 </sst>
 </file>
@@ -336,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,8 +398,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +412,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,7 +688,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -677,7 +697,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>297</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,19 +1239,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2738853503184715</c:v>
+                  <c:v>1.1142061281337048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.547770700636943</c:v>
+                  <c:v>2.5069637883008355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31847133757961787</c:v>
+                  <c:v>0.2785515320334262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2738853503184715</c:v>
+                  <c:v>1.1142061281337048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.585987261146499</c:v>
+                  <c:v>94.986072423398326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F321F7-BE76-4856-980E-B8D55AEF34AC}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,11 +3692,326 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6123AF4-717C-48E0-8A40-9C49804B7A98}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>44</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="18">
+        <f>SUM(G4/$E12*100)</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="H7" s="18">
+        <f>SUM(H4/$E12*100)</f>
+        <v>97.777777777777771</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="10">
+        <f>SUM(E4:E11)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11">
+        <f>AVERAGE(E4:E11)</f>
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25DC9A0-5F80-4F73-A8C6-1C50E3204330}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,8 +4055,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2018'!I4)</f>
-        <v>8</v>
+        <f>SUM('2018'!I4+'2019'!G4)</f>
+        <v>9</v>
       </c>
       <c r="C3" s="8">
         <f>SUM('2018'!J4)</f>
@@ -3732,8 +4067,8 @@
         <v>4</v>
       </c>
       <c r="E3" s="8">
-        <f>SUM('2018'!L4)</f>
-        <v>297</v>
+        <f>SUM('2018'!L4+'2019'!H4)</f>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3765,23 +4100,23 @@
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>SUM(A3/$B$8*100)</f>
-        <v>1.2738853503184715</v>
+        <v>1.1142061281337048</v>
       </c>
       <c r="B6" s="18">
         <f>SUM(B3/$B$8*100)</f>
-        <v>2.547770700636943</v>
+        <v>2.5069637883008355</v>
       </c>
       <c r="C6" s="18">
         <f>SUM(C3/$B$8*100)</f>
-        <v>0.31847133757961787</v>
+        <v>0.2785515320334262</v>
       </c>
       <c r="D6" s="18">
         <f>SUM(D3/$B$8*100)</f>
-        <v>1.2738853503184715</v>
+        <v>1.1142061281337048</v>
       </c>
       <c r="E6" s="18">
         <f>SUM(E3/$B$8*100)</f>
-        <v>94.585987261146499</v>
+        <v>94.986072423398326</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3789,8 +4124,8 @@
         <v>35</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!C5+'2018'!G33)</f>
-        <v>314</v>
+        <f>SUM('2017'!C5+'2018'!G33+'2019'!E12)</f>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3798,8 +4133,8 @@
         <v>36</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!C6+'2018'!G34)</f>
-        <v>31</v>
+        <f>SUM('2017'!C6+'2018'!G34+'2019'!E13)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3808,15 +4143,15 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(B8/B9)</f>
-        <v>10.129032258064516</v>
+        <v>9.2051282051282044</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>50</v>
+      <c r="B11" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/2019/Kaysville/Kaysville Report.xlsx
+++ b/2019/Kaysville/Kaysville Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Kaysville\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDC3D41-A4F8-4E91-B7DF-BA8CA6537A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0A2BB-6D29-4E07-8AB6-E44C04E0DDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
+    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -401,6 +401,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,13 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2897,12 +2897,12 @@
       <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2940,12 +2940,12 @@
         <f>SUM(C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3026,25 +3026,25 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3125,12 +3125,12 @@
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3695,7 +3695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6123AF4-717C-48E0-8A40-9C49804B7A98}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3724,26 +3724,26 @@
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3770,7 +3770,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8">
@@ -3796,7 +3796,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8">
@@ -3810,18 +3810,18 @@
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8">
@@ -3847,7 +3847,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="8">
@@ -3875,7 +3875,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8">
@@ -3897,7 +3897,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8">
@@ -3919,7 +3919,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8"/>
@@ -3941,7 +3941,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
@@ -4010,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25DC9A0-5F80-4F73-A8C6-1C50E3204330}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4024,13 +4024,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4072,12 +4072,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>49</v>
       </c>
     </row>
